--- a/data/Subset 1/Video Mosaic Grade 6 2 variables 13.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 6 2 variables 13.xlsx
@@ -473,7 +473,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,7 +496,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -519,7 +519,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -542,7 +542,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -611,7 +611,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -634,7 +634,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -680,7 +680,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -772,7 +772,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -842,7 +842,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -865,7 +865,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -888,7 +888,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -911,7 +911,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -957,7 +957,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -980,7 +980,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1003,7 +1003,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1049,7 +1049,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1072,7 +1072,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1095,7 +1095,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1141,7 +1141,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1187,7 +1187,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1210,7 +1210,7 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1233,7 +1233,7 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1325,7 +1325,7 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1371,7 +1371,7 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1394,7 +1394,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1555,7 +1555,7 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1578,7 +1578,7 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1601,7 +1601,7 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1624,7 +1624,7 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1647,7 +1647,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1670,7 +1670,7 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1716,7 +1716,7 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1739,7 +1739,7 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2038,7 +2038,7 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2107,7 +2107,7 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
